--- a/xl/sales_report_template.xlsx
+++ b/xl/sales_report_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/ch06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFADEBB8-67DE-3D4B-B70A-C424FED29421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54CAF3D-8375-D641-8524-AB602A417BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="29980" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="29840" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,7 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,7 +82,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -95,6 +95,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,156 +838,157 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:I16">
